--- a/806209426/localisation/excel/effects_l_german.xlsx
+++ b/806209426/localisation/excel/effects_l_german.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve"> EFFECT_ANNEX_COUNTRY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$NAME|U$§! annektiert §Y$TARGET$§!.</t>
+    <t xml:space="preserve">§Y§Y $NAME|U$ §!§!  annektiert §Y§Y $TARGET$ §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_ADD_OPINION:</t>
@@ -517,7 +517,7 @@
     <t xml:space="preserve"> EFFECT_TECH_BONUS_USES:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$USES$x§! </t>
+    <t xml:space="preserve">§Y§Y $USES$x §!§!  </t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_SOUND_DESC:</t>
@@ -1012,7 +1012,7 @@
     <t xml:space="preserve"> TIMED_IDEA_DATE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HWird am $DATE$ entfernt§!.</t>
+    <t xml:space="preserve">§H§H Wird am $DATE$ entfernt §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> IDEA_EXPIRED_HEADER:</t>
@@ -1078,7 +1078,7 @@
     <t xml:space="preserve"> EFFECT_START_CIVIL_WAR:</t>
   </si>
   <si>
-    <t xml:space="preserve">$IDEOLOGY|Y$§Ye§! Anhänger lösen einen Bürgerkrieg in unserem Land aus.</t>
+    <t xml:space="preserve">$IDEOLOGY|Y$§Y§Y e §!§!  Anhänger lösen einen Bürgerkrieg in unserem Land aus.</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_TRANSFER_UNITS:</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve"> EFFECT_DESTROY_SHIPS:</t>
   </si>
   <si>
-    <t xml:space="preserve">Zerstört $COUNT|H$ $TYPE|H$§Hs§!</t>
+    <t xml:space="preserve">Zerstört $COUNT|H$ $TYPE|H$§H§H s §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_DESTROY_SHIPS_ALL:</t>
@@ -1501,13 +1501,13 @@
     <t xml:space="preserve"> EFFECT_PROMOTE_LEADER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wird zum §HFeldmarschall§! befördert</t>
+    <t xml:space="preserve">Wird zum §H§H Feldmarschall §!§!  befördert</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_DEMOTE_LEADER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wird zum §HGeneral§! degradiert</t>
+    <t xml:space="preserve">Wird zum §H§H General §!§!  degradiert</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_GAIN_XP:</t>
@@ -1771,13 +1771,13 @@
     <t xml:space="preserve"> EFFECT_MODIFY_TIMED_IDEA_INCREASE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verlängert die Dauer von „$IDEA|H$“ auf den $DATE$ (§H+§!$TIME_DESC$).\n</t>
+    <t xml:space="preserve">Verlängert die Dauer von „$IDEA|H$“ auf den $DATE$ (§H§H + §!§! $TIME_DESC$).\n</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_MODIFY_TIMED_IDEA_DECREASE:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verkürzt die Dauer von „$IDEA|H$“ auf den $DATE$ (§H-§!$TIME_DESC$).\n</t>
+    <t xml:space="preserve">Verkürzt die Dauer von „$IDEA|H$“ auf den $DATE$ (§H§H - §!§! $TIME_DESC$).\n</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_ACTIVATE_DECISION:</t>
@@ -1825,7 +1825,7 @@
     <t xml:space="preserve"> EFFECT_BECOME_EXILED_IN:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wird zu einer §HExilregierung§! in $HOSTNAMEDEF|H$.</t>
+    <t xml:space="preserve">Wird zu einer §H§H Exilregierung §!§!  in $HOSTNAMEDEF|H$.</t>
   </si>
   <si>
     <t xml:space="preserve"> CIVIL_WAR_COUNTRY_EFFECT_BEGIN:</t>
@@ -2131,49 +2131,49 @@
     <t xml:space="preserve"> add_ruling_to_dem_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YDemokratie§! addieren.</t>
+    <t xml:space="preserve">Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Demokratie §!§!  addieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> add_ruling_to_fas_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YFaschismus§! addieren.</t>
+    <t xml:space="preserve">Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Faschismus §!§!  addieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> add_ruling_to_com_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YKommunismus§! addieren.</t>
+    <t xml:space="preserve">Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Kommunismus §!§!  addieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> add_ruling_to_neu_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YNeutral§! addieren.</t>
+    <t xml:space="preserve">Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Neutral §!§!  addieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> if_they_accept_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§YAuswirkungen, wenn sie annehmen:§!</t>
+    <t xml:space="preserve">\n§Y§Y Auswirkungen, wenn sie annehmen: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> if_they_accept_newline_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§YAuswirkungen, wenn sie annehmen:§!\n</t>
+    <t xml:space="preserve">\n§Y§Y Auswirkungen, wenn sie annehmen: §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> we_will_gain_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YWir erhalten§!:</t>
+    <t xml:space="preserve">§Y§Y Wir erhalten §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> THIS_IS_WIP_TT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWORK IN PROGRESS§!</t>
+    <t xml:space="preserve">§R§R WORK IN PROGRESS §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_PROMOTE_CHARACTER:</t>
@@ -2239,43 +2239,43 @@
     <t xml:space="preserve"> if_they_refuse_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§YAuswirkungen, wenn sie ablehnen:§!</t>
+    <t xml:space="preserve">\n§Y§Y Auswirkungen, wenn sie ablehnen: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> if_they_refuse_newline_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§YAuswirkungen, wenn sie ablehnen:§!\n</t>
+    <t xml:space="preserve">\n§Y§Y Auswirkungen, wenn sie ablehnen: §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_CHARACTER_LIST_LAND_UNIT_LEADERS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YGeneräle und Feldmarschalle§!:</t>
+    <t xml:space="preserve">§Y§Y Generäle und Feldmarschalle §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_CHARACTER_LIST_ADMIRALS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YAdmirale§!:</t>
+    <t xml:space="preserve">§Y§Y Admirale §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_CHARACTER_LIST_POLITICAL_ADVISORS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YPolitische Berater§!:</t>
+    <t xml:space="preserve">§Y§Y Politische Berater §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_CHARACTER_LIST_MILITARY_ADVISORS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YMilitärisches Oberkommando &amp; Stabschefs§!:</t>
+    <t xml:space="preserve">§Y§Y Militärisches Oberkommando &amp; Stabschefs §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_CHARACTER_LIST_THEORISTS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YTheoretiker§!:</t>
+    <t xml:space="preserve">§Y§Y Theoretiker §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_CHARACTER_LIST_SKILL:</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve"> EFFECT_MIO_COMPLETE_TRAIT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält §G1§! Größe und die abgeschlossene Eigenschaft „$TRAIT|H$“</t>
+    <t xml:space="preserve">Erhält §G§G 1 §!§!  Größe und die abgeschlossene Eigenschaft „$TRAIT|H$“</t>
   </si>
   <si>
     <t xml:space="preserve"> EFFECT_MIO_UNLOCK_TRAIT:</t>
@@ -2876,8 +2876,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D441" activeCellId="0" sqref="D1:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3165,11 +3165,11 @@
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> EFFECT_ANNEX_COUNTRY: "§Y$NAME|U$§! annektiert §Y$TARGET$§!."</v>
+        <v> EFFECT_ANNEX_COUNTRY: "§Y§Y $NAME|U$ §!§!  annektiert §Y§Y $TARGET$ §!§! ."</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> EFFECT_ANNEX_COUNTRY: "§Y$NAME|U$§! annektiert §Y$TARGET$§!."</v>
+        <v> EFFECT_ANNEX_COUNTRY: "§Y§Y $NAME|U$ §!§!  annektiert §Y§Y $TARGET$ §!§! ."</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,11 +4237,11 @@
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v> EFFECT_TECH_BONUS_USES: "§Y$USES$x§! "</v>
+        <v> EFFECT_TECH_BONUS_USES: "§Y§Y $USES$x §!§!  "</v>
       </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
-        <v> EFFECT_TECH_BONUS_USES: "§Y$USES$x§! "</v>
+        <v> EFFECT_TECH_BONUS_USES: "§Y§Y $USES$x §!§!  "</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,11 +5565,11 @@
       </c>
       <c r="C168" s="1" t="str">
         <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v> TIMED_IDEA_DATE: "§HWird am $DATE$ entfernt§!."</v>
+        <v> TIMED_IDEA_DATE: "§H§H Wird am $DATE$ entfernt §!§! ."</v>
       </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
-        <v> TIMED_IDEA_DATE: "§HWird am $DATE$ entfernt§!."</v>
+        <v> TIMED_IDEA_DATE: "§H§H Wird am $DATE$ entfernt §!§! ."</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,11 +5741,11 @@
       </c>
       <c r="C179" s="1" t="str">
         <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v> EFFECT_START_CIVIL_WAR: "$IDEOLOGY|Y$§Ye§! Anhänger lösen einen Bürgerkrieg in unserem Land aus."</v>
+        <v> EFFECT_START_CIVIL_WAR: "$IDEOLOGY|Y$§Y§Y e §!§!  Anhänger lösen einen Bürgerkrieg in unserem Land aus."</v>
       </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
-        <v> EFFECT_START_CIVIL_WAR: "$IDEOLOGY|Y$§Ye§! Anhänger lösen einen Bürgerkrieg in unserem Land aus."</v>
+        <v> EFFECT_START_CIVIL_WAR: "$IDEOLOGY|Y$§Y§Y e §!§!  Anhänger lösen einen Bürgerkrieg in unserem Land aus."</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="C248" s="1" t="str">
         <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v> EFFECT_DESTROY_SHIPS: "Zerstört $COUNT|H$ $TYPE|H$§Hs§!"</v>
+        <v> EFFECT_DESTROY_SHIPS: "Zerstört $COUNT|H$ $TYPE|H$§H§H s §!§! "</v>
       </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
-        <v> EFFECT_DESTROY_SHIPS: "Zerstört $COUNT|H$ $TYPE|H$§Hs§!"</v>
+        <v> EFFECT_DESTROY_SHIPS: "Zerstört $COUNT|H$ $TYPE|H$§H§H s §!§! "</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,11 +6877,11 @@
       </c>
       <c r="C250" s="1" t="str">
         <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v> EFFECT_PROMOTE_LEADER: "Wird zum §HFeldmarschall§! befördert"</v>
+        <v> EFFECT_PROMOTE_LEADER: "Wird zum §H§H Feldmarschall §!§!  befördert"</v>
       </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
-        <v> EFFECT_PROMOTE_LEADER: "Wird zum §HFeldmarschall§! befördert"</v>
+        <v> EFFECT_PROMOTE_LEADER: "Wird zum §H§H Feldmarschall §!§!  befördert"</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6893,11 +6893,11 @@
       </c>
       <c r="C251" s="1" t="str">
         <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v> EFFECT_DEMOTE_LEADER: "Wird zum §HGeneral§! degradiert"</v>
+        <v> EFFECT_DEMOTE_LEADER: "Wird zum §H§H General §!§!  degradiert"</v>
       </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
-        <v> EFFECT_DEMOTE_LEADER: "Wird zum §HGeneral§! degradiert"</v>
+        <v> EFFECT_DEMOTE_LEADER: "Wird zum §H§H General §!§!  degradiert"</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,11 +7597,11 @@
       </c>
       <c r="C295" s="1" t="str">
         <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v> EFFECT_MODIFY_TIMED_IDEA_INCREASE: "Verlängert die Dauer von „$IDEA|H$“ auf den $DATE$ (§H+§!$TIME_DESC$).\n"</v>
+        <v> EFFECT_MODIFY_TIMED_IDEA_INCREASE: "Verlängert die Dauer von „$IDEA|H$“ auf den $DATE$ (§H§H + §!§! $TIME_DESC$).\n"</v>
       </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
-        <v> EFFECT_MODIFY_TIMED_IDEA_INCREASE: "Verlängert die Dauer von „$IDEA|H$“ auf den $DATE$ (§H+§!$TIME_DESC$).\n"</v>
+        <v> EFFECT_MODIFY_TIMED_IDEA_INCREASE: "Verlängert die Dauer von „$IDEA|H$“ auf den $DATE$ (§H§H + §!§! $TIME_DESC$).\n"</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,11 +7613,11 @@
       </c>
       <c r="C296" s="1" t="str">
         <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v> EFFECT_MODIFY_TIMED_IDEA_DECREASE: "Verkürzt die Dauer von „$IDEA|H$“ auf den $DATE$ (§H-§!$TIME_DESC$).\n"</v>
+        <v> EFFECT_MODIFY_TIMED_IDEA_DECREASE: "Verkürzt die Dauer von „$IDEA|H$“ auf den $DATE$ (§H§H - §!§! $TIME_DESC$).\n"</v>
       </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
-        <v> EFFECT_MODIFY_TIMED_IDEA_DECREASE: "Verkürzt die Dauer von „$IDEA|H$“ auf den $DATE$ (§H-§!$TIME_DESC$).\n"</v>
+        <v> EFFECT_MODIFY_TIMED_IDEA_DECREASE: "Verkürzt die Dauer von „$IDEA|H$“ auf den $DATE$ (§H§H - §!§! $TIME_DESC$).\n"</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,11 +7741,11 @@
       </c>
       <c r="C304" s="1" t="str">
         <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v> EFFECT_BECOME_EXILED_IN: "Wird zu einer §HExilregierung§! in $HOSTNAMEDEF|H$."</v>
+        <v> EFFECT_BECOME_EXILED_IN: "Wird zu einer §H§H Exilregierung §!§!  in $HOSTNAMEDEF|H$."</v>
       </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
-        <v> EFFECT_BECOME_EXILED_IN: "Wird zu einer §HExilregierung§! in $HOSTNAMEDEF|H$."</v>
+        <v> EFFECT_BECOME_EXILED_IN: "Wird zu einer §H§H Exilregierung §!§!  in $HOSTNAMEDEF|H$."</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8557,11 +8557,11 @@
       </c>
       <c r="C355" s="1" t="str">
         <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v> add_ruling_to_dem_tt: "Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YDemokratie§! addieren."</v>
+        <v> add_ruling_to_dem_tt: "Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Demokratie §!§!  addieren."</v>
       </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
-        <v> add_ruling_to_dem_tt: "Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YDemokratie§! addieren."</v>
+        <v> add_ruling_to_dem_tt: "Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Demokratie §!§!  addieren."</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8573,11 +8573,11 @@
       </c>
       <c r="C356" s="1" t="str">
         <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v> add_ruling_to_fas_tt: "Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YFaschismus§! addieren."</v>
+        <v> add_ruling_to_fas_tt: "Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Faschismus §!§!  addieren."</v>
       </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
-        <v> add_ruling_to_fas_tt: "Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YFaschismus§! addieren."</v>
+        <v> add_ruling_to_fas_tt: "Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Faschismus §!§!  addieren."</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8589,11 +8589,11 @@
       </c>
       <c r="C357" s="1" t="str">
         <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v> add_ruling_to_com_tt: "Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YKommunismus§! addieren."</v>
+        <v> add_ruling_to_com_tt: "Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Kommunismus §!§!  addieren."</v>
       </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
-        <v> add_ruling_to_com_tt: "Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YKommunismus§! addieren."</v>
+        <v> add_ruling_to_com_tt: "Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Kommunismus §!§!  addieren."</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8605,11 +8605,11 @@
       </c>
       <c r="C358" s="1" t="str">
         <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v> add_ruling_to_neu_tt: "Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YNeutral§! addieren."</v>
+        <v> add_ruling_to_neu_tt: "Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Neutral §!§!  addieren."</v>
       </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
-        <v> add_ruling_to_neu_tt: "Sämtliche §Y[ROOT.GetRulingIdeology]§! Unterstützung zu §YNeutral§! addieren."</v>
+        <v> add_ruling_to_neu_tt: "Sämtliche §Y§Y [ROOT.GetRulingIdeology] §!§!  Unterstützung zu §Y§Y Neutral §!§!  addieren."</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8621,11 +8621,11 @@
       </c>
       <c r="C359" s="1" t="str">
         <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v> if_they_accept_tt: "\n§YAuswirkungen, wenn sie annehmen:§!"</v>
+        <v> if_they_accept_tt: "\n§Y§Y Auswirkungen, wenn sie annehmen: §!§! "</v>
       </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
-        <v> if_they_accept_tt: "\n§YAuswirkungen, wenn sie annehmen:§!"</v>
+        <v> if_they_accept_tt: "\n§Y§Y Auswirkungen, wenn sie annehmen: §!§! "</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8637,11 +8637,11 @@
       </c>
       <c r="C360" s="1" t="str">
         <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v> if_they_accept_newline_tt: "\n§YAuswirkungen, wenn sie annehmen:§!\n"</v>
+        <v> if_they_accept_newline_tt: "\n§Y§Y Auswirkungen, wenn sie annehmen: §!§! \n"</v>
       </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
-        <v> if_they_accept_newline_tt: "\n§YAuswirkungen, wenn sie annehmen:§!\n"</v>
+        <v> if_they_accept_newline_tt: "\n§Y§Y Auswirkungen, wenn sie annehmen: §!§! \n"</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8653,11 +8653,11 @@
       </c>
       <c r="C361" s="1" t="str">
         <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v> we_will_gain_tt: "§YWir erhalten§!:"</v>
+        <v> we_will_gain_tt: "§Y§Y Wir erhalten §!§! :"</v>
       </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
-        <v> we_will_gain_tt: "§YWir erhalten§!:"</v>
+        <v> we_will_gain_tt: "§Y§Y Wir erhalten §!§! :"</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8669,11 +8669,11 @@
       </c>
       <c r="C362" s="1" t="str">
         <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v> THIS_IS_WIP_TT: "§RWORK IN PROGRESS§!"</v>
+        <v> THIS_IS_WIP_TT: "§R§R WORK IN PROGRESS §!§! "</v>
       </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
-        <v> THIS_IS_WIP_TT: "§RWORK IN PROGRESS§!"</v>
+        <v> THIS_IS_WIP_TT: "§R§R WORK IN PROGRESS §!§! "</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8845,11 +8845,11 @@
       </c>
       <c r="C373" s="1" t="str">
         <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v> if_they_refuse_tt: "\n§YAuswirkungen, wenn sie ablehnen:§!"</v>
+        <v> if_they_refuse_tt: "\n§Y§Y Auswirkungen, wenn sie ablehnen: §!§! "</v>
       </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
-        <v> if_they_refuse_tt: "\n§YAuswirkungen, wenn sie ablehnen:§!"</v>
+        <v> if_they_refuse_tt: "\n§Y§Y Auswirkungen, wenn sie ablehnen: §!§! "</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8861,11 +8861,11 @@
       </c>
       <c r="C374" s="1" t="str">
         <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v> if_they_refuse_newline_tt: "\n§YAuswirkungen, wenn sie ablehnen:§!\n"</v>
+        <v> if_they_refuse_newline_tt: "\n§Y§Y Auswirkungen, wenn sie ablehnen: §!§! \n"</v>
       </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
-        <v> if_they_refuse_newline_tt: "\n§YAuswirkungen, wenn sie ablehnen:§!\n"</v>
+        <v> if_they_refuse_newline_tt: "\n§Y§Y Auswirkungen, wenn sie ablehnen: §!§! \n"</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8877,11 +8877,11 @@
       </c>
       <c r="C375" s="1" t="str">
         <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v> EFFECT_CHARACTER_LIST_LAND_UNIT_LEADERS: "§YGeneräle und Feldmarschalle§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_LAND_UNIT_LEADERS: "§Y§Y Generäle und Feldmarschalle §!§! :"</v>
       </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
-        <v> EFFECT_CHARACTER_LIST_LAND_UNIT_LEADERS: "§YGeneräle und Feldmarschalle§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_LAND_UNIT_LEADERS: "§Y§Y Generäle und Feldmarschalle §!§! :"</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8893,11 +8893,11 @@
       </c>
       <c r="C376" s="1" t="str">
         <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v> EFFECT_CHARACTER_LIST_ADMIRALS: "§YAdmirale§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_ADMIRALS: "§Y§Y Admirale §!§! :"</v>
       </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
-        <v> EFFECT_CHARACTER_LIST_ADMIRALS: "§YAdmirale§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_ADMIRALS: "§Y§Y Admirale §!§! :"</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8909,11 +8909,11 @@
       </c>
       <c r="C377" s="1" t="str">
         <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v> EFFECT_CHARACTER_LIST_POLITICAL_ADVISORS: "§YPolitische Berater§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_POLITICAL_ADVISORS: "§Y§Y Politische Berater §!§! :"</v>
       </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
-        <v> EFFECT_CHARACTER_LIST_POLITICAL_ADVISORS: "§YPolitische Berater§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_POLITICAL_ADVISORS: "§Y§Y Politische Berater §!§! :"</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,11 +8925,11 @@
       </c>
       <c r="C378" s="1" t="str">
         <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v> EFFECT_CHARACTER_LIST_MILITARY_ADVISORS: "§YMilitärisches Oberkommando &amp; Stabschefs§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_MILITARY_ADVISORS: "§Y§Y Militärisches Oberkommando &amp; Stabschefs §!§! :"</v>
       </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
-        <v> EFFECT_CHARACTER_LIST_MILITARY_ADVISORS: "§YMilitärisches Oberkommando &amp; Stabschefs§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_MILITARY_ADVISORS: "§Y§Y Militärisches Oberkommando &amp; Stabschefs §!§! :"</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8941,11 +8941,11 @@
       </c>
       <c r="C379" s="1" t="str">
         <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v> EFFECT_CHARACTER_LIST_THEORISTS: "§YTheoretiker§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_THEORISTS: "§Y§Y Theoretiker §!§! :"</v>
       </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
-        <v> EFFECT_CHARACTER_LIST_THEORISTS: "§YTheoretiker§!:"</v>
+        <v> EFFECT_CHARACTER_LIST_THEORISTS: "§Y§Y Theoretiker §!§! :"</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9131,15 +9131,15 @@
       <c r="B391" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="C391" s="1" t="str">
+      <c r="C391" s="4" t="str">
         <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
         <v> CHANGE_DIV_TEMPLATE_EFFECT: "Die Vorlage der Division $DIV$ wechselt zu \"$TEMPLATE|H$\"
- EFFECT_SEND_EMBARGO:_x005F_x0001_"Embargo gegen $COUNTRY|H$ verhängen"</v>
-      </c>
-      <c r="D391" s="1" t="str">
+ EFFECT_SEND_EMBARGO:_x0001_"Embargo gegen $COUNTRY|H$ verhängen"</v>
+      </c>
+      <c r="D391" s="4" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
         <v> CHANGE_DIV_TEMPLATE_EFFECT: "Die Vorlage der Division $DIV$ wechselt zu \"$TEMPLATE|H$\"
- EFFECT_SEND_EMBARGO:_x005F_x0001_"Embargo gegen $COUNTRY|H$ verhängen"</v>
+ EFFECT_SEND_EMBARGO:_x0001_"Embargo gegen $COUNTRY|H$ verhängen"</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9247,11 +9247,11 @@
       </c>
       <c r="C398" s="1" t="str">
         <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v> EFFECT_MIO_COMPLETE_TRAIT: "Erhält §G1§! Größe und die abgeschlossene Eigenschaft „$TRAIT|H$“"</v>
+        <v> EFFECT_MIO_COMPLETE_TRAIT: "Erhält §G§G 1 §!§!  Größe und die abgeschlossene Eigenschaft „$TRAIT|H$“"</v>
       </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
-        <v> EFFECT_MIO_COMPLETE_TRAIT: "Erhält §G1§! Größe und die abgeschlossene Eigenschaft „$TRAIT|H$“"</v>
+        <v> EFFECT_MIO_COMPLETE_TRAIT: "Erhält §G§G 1 §!§!  Größe und die abgeschlossene Eigenschaft „$TRAIT|H$“"</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9943,500 +9943,300 @@
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>
